--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -66,7 +66,7 @@
     <t>Sheet2:C3</t>
   </si>
   <si>
-    <t>Rules – Weight</t>
+    <t>Rules - Weight</t>
   </si>
   <si>
     <t>value &lt; 70</t>
@@ -87,7 +87,7 @@
     <t>Heavy</t>
   </si>
   <si>
-    <t>Rules – Age</t>
+    <t>Rules - Age</t>
   </si>
   <si>
     <t>value &lt; 25</t>
@@ -114,6 +114,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,7 +287,7 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
+      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -388,7 +389,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="146" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="218" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Weight</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>value &lt; 5</t>
+  </si>
+  <si>
+    <t>Baby</t>
   </si>
 </sst>
 </file>
@@ -111,25 +117,25 @@
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,7 +205,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E13" activeCellId="0" pane="topLeft" sqref="E13"/>
+      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -284,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+      <selection activeCell="D17" activeCellId="0" pane="topLeft" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -386,6 +392,14 @@
         <v>27</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="C16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="218" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="229" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Weight</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>Baby</t>
+  </si>
+  <si>
+    <t>Rules - Sex</t>
+  </si>
+  <si>
+    <t>value == 'M'</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>value == 'F'</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -290,10 +305,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D17" activeCellId="0" pane="topLeft" sqref="D17"/>
+      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -400,6 +415,27 @@
         <v>29</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="C18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="C19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="229" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="241" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -149,6 +149,12 @@
     </font>
     <font>
       <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Ubuntu"/>
+      <charset val="1"/>
       <family val="0"/>
       <sz val="10"/>
     </font>
@@ -195,8 +201,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -305,10 +315,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
+      <selection activeCell="E13" activeCellId="0" pane="topLeft" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -333,13 +343,14 @@
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Weight</t>
   </si>
@@ -63,7 +63,13 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>Sheet2:C3</t>
+    <t>Results:A1</t>
+  </si>
+  <si>
+    <t>Destination File</t>
+  </si>
+  <si>
+    <t>Results.xlsx</t>
   </si>
   <si>
     <t>Rules - Weight</t>
@@ -130,7 +136,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -149,12 +155,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Ubuntu"/>
-      <charset val="1"/>
       <family val="0"/>
       <sz val="10"/>
     </font>
@@ -206,7 +206,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -315,10 +315,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E13" activeCellId="0" pane="topLeft" sqref="E13"/>
+      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -326,7 +326,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8010204081633"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.08163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -368,16 +368,16 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="B9" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="C10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -398,15 +398,15 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -418,7 +418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="C16" s="0" t="s">
         <v>28</v>
       </c>
@@ -427,24 +427,32 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="C18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="C20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -318,7 +318,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
+      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
